--- a/edm/Report/testexcel.xlsx
+++ b/edm/Report/testexcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1932" yWindow="204" windowWidth="20076" windowHeight="12156" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -289,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -309,7 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,9 +317,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -679,45 +675,48 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="18.5546875" customWidth="1" style="7" min="1" max="2"/>
-    <col width="20.33203125" customWidth="1" style="7" min="3" max="3"/>
-    <col width="18.5546875" customWidth="1" style="7" min="4" max="5"/>
-    <col width="15.44140625" customWidth="1" style="7" min="6" max="6"/>
-    <col width="9" customWidth="1" style="7" min="7" max="7"/>
+    <col width="18.5546875" customWidth="1" min="1" max="2"/>
+    <col width="20.33203125" customWidth="1" min="3" max="3"/>
+    <col width="18.5546875" customWidth="1" min="4" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="7" thickBot="1">
-      <c r="A1" s="22" t="n"/>
-      <c r="B1" s="23" t="n"/>
-      <c r="C1" s="23" t="n"/>
-      <c r="D1" s="23" t="n"/>
-      <c r="E1" s="24" t="n"/>
-      <c r="F1" s="11" t="n"/>
-      <c r="G1" s="1" t="n"/>
+    <row r="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="20" t="inlineStr">
+        <is>
+          <t>GB_企业出海白皮书发布webinar_May8</t>
+        </is>
+      </c>
+      <c r="B1" s="21" t="n"/>
+      <c r="C1" s="21" t="n"/>
+      <c r="D1" s="21" t="n"/>
+      <c r="E1" s="22" t="n"/>
+      <c r="F1" s="1" t="n"/>
     </row>
-    <row r="2" ht="88.8" customHeight="1" s="7" thickBot="1">
-      <c r="A2" s="25">
-        <f>"Summary:
-- Date of execution: 08:00 AM on "&amp;TEXT(H1,"yyyy-mm-dd")&amp;" 
-- Open Rate - "&amp;TEXT(B7,"0.00%")&amp;" （GC benchmark: 4-6%）
-- CTR - "&amp;TEXT(D7,"0.00%")&amp;"  (GC benchmark: 0.2 – 0.4 %)
-- Click-to-open Rate - "&amp;TEXT(C7,"0.00%")&amp;" (GC benchmark: 5 - 7 % )"</f>
-        <v/>
-      </c>
-      <c r="B2" s="23" t="n"/>
-      <c r="C2" s="23" t="n"/>
-      <c r="D2" s="23" t="n"/>
-      <c r="E2" s="24" t="n"/>
+    <row r="2" ht="88.8" customHeight="1" thickBot="1">
+      <c r="A2" s="23" t="inlineStr">
+        <is>
+          <t>Summary:
+- Date of execution: 08:00 AM on 2020-04-30
+- Open Rate - 7.00% （GC benchmark: 4-6%）
+- CTR - 0.65%  (GC benchmark: 0.2 – 0.4 %)
+- Click-to-open Rate - 3.23% (GC benchmark: 5 - 7 % )</t>
+        </is>
+      </c>
+      <c r="B2" s="21" t="n"/>
+      <c r="C2" s="21" t="n"/>
+      <c r="D2" s="21" t="n"/>
+      <c r="E2" s="22" t="n"/>
     </row>
-    <row r="3" ht="15" customHeight="1" s="7" thickBot="1">
+    <row r="3" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Sent</t>
@@ -744,7 +743,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="79.95" customHeight="1" s="7" thickBot="1" thickTop="1">
+    <row r="4" ht="79.95" customHeight="1" thickBot="1" thickTop="1">
       <c r="A4" s="3" t="n">
         <v>11999</v>
       </c>
@@ -761,14 +760,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="7" thickBot="1">
-      <c r="A5" s="26" t="n"/>
-      <c r="B5" s="23" t="n"/>
-      <c r="C5" s="23" t="n"/>
-      <c r="D5" s="23" t="n"/>
-      <c r="E5" s="24" t="n"/>
+    <row r="5" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="24" t="n"/>
+      <c r="B5" s="21" t="n"/>
+      <c r="C5" s="21" t="n"/>
+      <c r="D5" s="21" t="n"/>
+      <c r="E5" s="22" t="n"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="7" thickBot="1">
+    <row r="6" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Bounce Rate</t>
@@ -795,7 +794,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="79.95" customHeight="1" s="7" thickBot="1" thickTop="1">
+    <row r="7" ht="79.95" customHeight="1" thickBot="1" thickTop="1">
       <c r="A7" s="4">
         <f>1-B4/A4</f>
         <v/>
@@ -817,34 +816,31 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="7" thickTop="1">
-      <c r="A8" s="27" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" thickTop="1">
+      <c r="A8" s="25" t="inlineStr">
         <is>
           <t>链接名</t>
         </is>
       </c>
-      <c r="B8" s="28" t="n"/>
-      <c r="C8" s="28" t="n"/>
-      <c r="D8" s="29" t="n"/>
-      <c r="E8" s="18" t="inlineStr">
+      <c r="B8" s="26" t="n"/>
+      <c r="C8" s="26" t="n"/>
+      <c r="D8" s="27" t="n"/>
+      <c r="E8" s="16" t="inlineStr">
         <is>
           <t>点击数（次）</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="n"/>
-      <c r="B9" s="30" t="n"/>
-      <c r="C9" s="30" t="n"/>
-      <c r="D9" s="31" t="n"/>
-      <c r="E9" s="21" t="n"/>
+      <c r="A9" s="19" t="n"/>
+      <c r="B9" s="28" t="n"/>
+      <c r="C9" s="28" t="n"/>
+      <c r="D9" s="29" t="n"/>
+      <c r="E9" s="19" t="n"/>
     </row>
-    <row r="10"/>
-    <row r="11"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:F9"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:D8"/>
